--- a/Assets/Resource/ExcelData/item.xlsx
+++ b/Assets/Resource/ExcelData/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D18253-4748-4F5B-B799-F8D485D95348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8F48F-1F0D-41C4-8B4E-A03AD5AD34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="1584" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="7488" yWindow="7572" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>int</t>
   </si>
@@ -143,6 +143,85 @@
   </si>
   <si>
     <t>function_value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_2</t>
+  </si>
+  <si>
+    <t>img_3</t>
+  </si>
+  <si>
+    <t>img_4</t>
+  </si>
+  <si>
+    <t>img_5</t>
+  </si>
+  <si>
+    <t>img_6</t>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +325,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -691,115 +774,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="8">
+        <v>6</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -920,17 +1159,6 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -943,17 +1171,6 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -966,17 +1183,111 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/item.xlsx
+++ b/Assets/Resource/ExcelData/item.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8F48F-1F0D-41C4-8B4E-A03AD5AD34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718E33A-E281-4B85-9A10-11AA159019C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7488" yWindow="7572" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="15696" yWindow="7596" windowWidth="22368" windowHeight="11664" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ch1" sheetId="1" r:id="rId1"/>
+    <sheet name="item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>int</t>
   </si>
@@ -222,6 +222,17 @@
   </si>
   <si>
     <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_collection_check</t>
+  </si>
+  <si>
+    <t>도감 표시 구분자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,10 +336,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,18 +656,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="33.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="3"/>
+    <col min="7" max="13" width="12" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -697,8 +704,11 @@
       <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="M1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -735,8 +745,11 @@
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -773,236 +786,257 @@
       <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20001</v>
       </c>
@@ -1039,8 +1073,11 @@
       <c r="L10" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1051,8 +1088,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1063,8 +1101,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1075,8 +1114,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1087,8 +1127,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1099,8 +1140,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1111,6 +1153,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1123,6 +1166,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1135,6 +1179,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1147,6 +1192,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1159,6 +1205,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -1171,6 +1218,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1183,6 +1231,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -1233,7 +1282,6 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1256,7 +1304,6 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1279,7 +1326,6 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
